--- a/02-Thu thập dữ liệu với Selenium/BaiTap/bt_fox/danh_sach_sp_3.xlsx
+++ b/02-Thu thập dữ liệu với Selenium/BaiTap/bt_fox/danh_sach_sp_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Giá ban đầu</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Hình ảnh</t>
         </is>
       </c>
@@ -466,10 +471,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2,450,000₫</t>
+          <t>3,660,000₫</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>3,660,000₫</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://cdn.hstatic.net/products/200000564907/s25-1_ebcd4486928c424185de4cee4b433f28_large.png</t>
         </is>
@@ -489,7 +499,8 @@
           <t>950,000₫</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://cdn.hstatic.net/products/200000564907/1_8f9bd97294694946a0a49ef619c59230_large.png</t>
         </is>
@@ -506,10 +517,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1,150,000₫</t>
+          <t>1,650,000₫</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>1,650,000₫</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://cdn.hstatic.net/products/200000564907/tai-nghe-s1000-den_5b803306e51742d0a1d1a5f5cac124bb_large.png</t>
         </is>
@@ -526,10 +542,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>150,000₫</t>
+          <t>250,000₫</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>250,000₫</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/cap_chuyen_doi_ho_tro_sac_va_ket_noi_mic_gochek_8997588e819a4ae28fe943ee6b08e76f_large.jpg</t>
         </is>
@@ -546,10 +567,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>650,000₫</t>
+          <t>1,117,000₫</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>1,117,000₫</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/1_58bd132a3f9a495f8eabc78461fd419e_large.jpg</t>
         </is>
@@ -566,10 +592,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>950,000₫</t>
+          <t>1,425,000₫</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>1,425,000₫</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/11_c543789a23264643bfd590ab2aa09950_large.jpg</t>
         </is>
@@ -586,10 +617,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>890,000₫</t>
+          <t>1,330,000₫</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>1,330,000₫</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/18_50af42ccdd5c4fb591cd94cb1c19d2bd_large.jpg</t>
         </is>
@@ -609,7 +645,8 @@
           <t>90,000₫</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/17_fd7888bef7b34fb09938ed90a96b2445_large.jpg</t>
         </is>
@@ -629,7 +666,8 @@
           <t>120,000₫</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/1_be729c8010344383bec0074f15b11f6a_large.jpg</t>
         </is>
@@ -649,7 +687,8 @@
           <t>1,985,000₫</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/1_0d4832051de741e0aba64e4c0d693262_large.jpg</t>
         </is>
@@ -666,10 +705,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1,460,000₫</t>
+          <t>1,890,000₫</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>1,890,000₫</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/anh_san_mic_ultra_plus__2__5adc2c2308ba4fbf8ffa4e1d5f38615f_large.jpg</t>
         </is>
@@ -686,10 +730,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>450,000₫</t>
+          <t>500,000₫</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>500,000₫</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/6_f680f4e30de04b7f820c57d6a178c501_large.jpg</t>
         </is>
@@ -709,7 +758,8 @@
           <t>640,000₫</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/avt_web_4f797a0ab92f41979a881a8ed47d7854_large.jpg</t>
         </is>
@@ -726,10 +776,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>70,000₫</t>
+          <t>105,000₫</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>105,000₫</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/dau_chuyen__3__d431251d463941d6bae82cd3af50d0ee_large.jpg</t>
         </is>
@@ -746,10 +801,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>70,000₫</t>
+          <t>105,000₫</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>105,000₫</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://product.hstatic.net/200000564907/product/7_468fc965d2054facafcefa5866522d34_large.jpg</t>
         </is>
@@ -766,12 +826,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20,000₫</t>
+          <t>30,000₫</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://product.hstatic.net/200000564907/product/dau_chuyen__6__baaa1679dd1e434aa22f29888a81cf2d_large.jpg</t>
+          <t>30,000₫</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAAEAAAABCAQAAAC1HAwCAAAAC0lEQVR42mNkYAAAAAYAAjCB0C8AAAAASUVORK5CYII=</t>
         </is>
       </c>
     </row>
